--- a/test/output/網路壽命比較(regular).xlsx
+++ b/test/output/網路壽命比較(regular).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A3B3F0-3110-4807-B88E-828375F0578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BF496-6699-45EC-B653-32B22D60CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="3150" windowWidth="15690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>my</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal 1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,25 +212,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24377.5</c:v>
+                  <c:v>23376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18635.3</c:v>
+                  <c:v>19220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14559.5</c:v>
+                  <c:v>15283.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10992.9</c:v>
+                  <c:v>10781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8277.2999999999993</c:v>
+                  <c:v>8991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6685.5</c:v>
+                  <c:v>6397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5511</c:v>
+                  <c:v>5241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,25 +318,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>808.40899999999999</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.16800000000001</c:v>
+                  <c:v>633.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>525.26300000000003</c:v>
+                  <c:v>547.678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>471.505</c:v>
+                  <c:v>503.38400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>418.43</c:v>
+                  <c:v>436.16899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>379.36900000000003</c:v>
+                  <c:v>392.80799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>314.58699999999999</c:v>
+                  <c:v>325.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,25 +424,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2126</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2071</c:v>
+                  <c:v>1816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2176</c:v>
+                  <c:v>1526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1121</c:v>
+                  <c:v>926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>916</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>771</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>546</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,25 +528,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22127.5</c:v>
+                  <c:v>24417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22583.200000000001</c:v>
+                  <c:v>26289.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23798</c:v>
+                  <c:v>26932.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24422.5</c:v>
+                  <c:v>28686.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23525.5</c:v>
+                  <c:v>28008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24264</c:v>
+                  <c:v>29727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23862.5</c:v>
+                  <c:v>30399.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,6 +899,9 @@
               <c:f>工作表1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -977,6 +984,9 @@
               <c:f>工作表1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1059,6 +1069,9 @@
               <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1130,6 +1143,89 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B78F-4134-AC23-5B3238A3B9D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CDC-4F44-A6C2-A1B875102652}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4153,7 +4249,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4193,30 +4289,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>24377.5</v>
+        <v>23376</v>
       </c>
       <c r="D2">
-        <v>18635.3</v>
+        <v>19220</v>
       </c>
       <c r="E2">
-        <v>14559.5</v>
+        <v>15283.5</v>
       </c>
       <c r="F2">
-        <v>10992.9</v>
+        <v>10781</v>
       </c>
       <c r="G2">
-        <v>8277.2999999999993</v>
+        <v>8991</v>
       </c>
       <c r="H2">
-        <v>6685.5</v>
+        <v>6397</v>
       </c>
       <c r="I2">
-        <v>5511</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4224,25 +4322,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>808.40899999999999</v>
+        <v>751</v>
       </c>
       <c r="D3">
-        <v>613.16800000000001</v>
+        <v>633.54999999999995</v>
       </c>
       <c r="E3">
-        <v>525.26300000000003</v>
+        <v>547.678</v>
       </c>
       <c r="F3">
-        <v>471.505</v>
+        <v>503.38400000000001</v>
       </c>
       <c r="G3">
-        <v>418.43</v>
+        <v>436.16899999999998</v>
       </c>
       <c r="H3">
-        <v>379.36900000000003</v>
+        <v>392.80799999999999</v>
       </c>
       <c r="I3">
-        <v>314.58699999999999</v>
+        <v>325.64</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4250,25 +4348,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2126</v>
+        <v>2161</v>
       </c>
       <c r="D4">
-        <v>2071</v>
+        <v>1816</v>
       </c>
       <c r="E4">
-        <v>2176</v>
+        <v>1526</v>
       </c>
       <c r="F4">
-        <v>1121</v>
+        <v>926</v>
       </c>
       <c r="G4">
-        <v>916</v>
+        <v>1061</v>
       </c>
       <c r="H4">
-        <v>771</v>
+        <v>881</v>
       </c>
       <c r="I4">
-        <v>546</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,25 +4375,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>22127.5</v>
+        <v>24417</v>
       </c>
       <c r="D5">
-        <v>22583.200000000001</v>
+        <v>26289.5</v>
       </c>
       <c r="E5">
-        <v>23798</v>
+        <v>26932.5</v>
       </c>
       <c r="F5">
-        <v>24422.5</v>
+        <v>28686.5</v>
       </c>
       <c r="G5">
-        <v>23525.5</v>
+        <v>28008</v>
       </c>
       <c r="H5">
-        <v>24264</v>
+        <v>29727</v>
       </c>
       <c r="I5">
-        <v>23862.5</v>
+        <v>30399.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4326,9 +4424,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/test/output/網路壽命比較(regular).xlsx
+++ b/test/output/網路壽命比較(regular).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BF496-6699-45EC-B653-32B22D60CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DA77D-3344-45D7-89E3-5DBAE8EE2ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="3150" windowWidth="15690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="3540" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,7 +37,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>normal 1000</t>
+    <t>normal 1400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special 1400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,25 +216,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23376</c:v>
+                  <c:v>22032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19220</c:v>
+                  <c:v>19606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15283.5</c:v>
+                  <c:v>13530.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10781</c:v>
+                  <c:v>11104.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8991</c:v>
+                  <c:v>8261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6397</c:v>
+                  <c:v>5691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5241</c:v>
+                  <c:v>5352.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,25 +322,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>751</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>633.54999999999995</c:v>
+                  <c:v>619.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>547.678</c:v>
+                  <c:v>546.96500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>503.38400000000001</c:v>
+                  <c:v>503.34800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>436.16899999999998</c:v>
+                  <c:v>436.16699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>392.80799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>325.64</c:v>
+                  <c:v>320.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,25 +428,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2161</c:v>
+                  <c:v>2101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1816</c:v>
+                  <c:v>1641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1526</c:v>
+                  <c:v>1351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1061</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>881</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>596</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,25 +532,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24417</c:v>
+                  <c:v>26655.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26289.5</c:v>
+                  <c:v>26429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26932.5</c:v>
+                  <c:v>28327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28686.5</c:v>
+                  <c:v>28183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28008</c:v>
+                  <c:v>29466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29727</c:v>
+                  <c:v>30793.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30399.5</c:v>
+                  <c:v>31275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +891,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15369109633782754"/>
+          <c:y val="4.540763673890609E-2"/>
+          <c:w val="0.61120155145374244"/>
+          <c:h val="0.7809833987469833"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -966,6 +980,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14498.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1051,6 +1086,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>867.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684.37699999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>605.21900000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536.26099999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424.89100000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1136,6 +1192,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>696</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1219,6 +1296,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26972.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26982.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1480,6 +1578,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77428868798141337"/>
+          <c:y val="0.36067997692238929"/>
+          <c:w val="0.22309179608862956"/>
+          <c:h val="0.27863972111845153"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3853,13 +3961,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>723898</xdr:colOff>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -4248,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4296,25 +4404,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>23376</v>
+        <v>22032</v>
       </c>
       <c r="D2">
-        <v>19220</v>
+        <v>19606</v>
       </c>
       <c r="E2">
-        <v>15283.5</v>
+        <v>13530.5</v>
       </c>
       <c r="F2">
-        <v>10781</v>
+        <v>11104.5</v>
       </c>
       <c r="G2">
-        <v>8991</v>
+        <v>8261</v>
       </c>
       <c r="H2">
-        <v>6397</v>
+        <v>5691</v>
       </c>
       <c r="I2">
-        <v>5241</v>
+        <v>5352.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4322,25 +4430,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="D3">
-        <v>633.54999999999995</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="E3">
-        <v>547.678</v>
+        <v>546.96500000000003</v>
       </c>
       <c r="F3">
-        <v>503.38400000000001</v>
+        <v>503.34800000000001</v>
       </c>
       <c r="G3">
-        <v>436.16899999999998</v>
+        <v>436.16699999999997</v>
       </c>
       <c r="H3">
         <v>392.80799999999999</v>
       </c>
       <c r="I3">
-        <v>325.64</v>
+        <v>320.64</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4348,25 +4456,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2161</v>
+        <v>2101</v>
       </c>
       <c r="D4">
-        <v>1816</v>
+        <v>1641</v>
       </c>
       <c r="E4">
-        <v>1526</v>
+        <v>1351</v>
       </c>
       <c r="F4">
-        <v>926</v>
+        <v>961</v>
       </c>
       <c r="G4">
-        <v>1061</v>
+        <v>1086</v>
       </c>
       <c r="H4">
-        <v>881</v>
+        <v>691</v>
       </c>
       <c r="I4">
-        <v>596</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,25 +4483,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>24417</v>
+        <v>26655.5</v>
       </c>
       <c r="D5">
-        <v>26289.5</v>
+        <v>26429</v>
       </c>
       <c r="E5">
-        <v>26932.5</v>
+        <v>28327</v>
       </c>
       <c r="F5">
-        <v>28686.5</v>
+        <v>28183</v>
       </c>
       <c r="G5">
-        <v>28008</v>
+        <v>29466</v>
       </c>
       <c r="H5">
-        <v>29727</v>
+        <v>30793.5</v>
       </c>
       <c r="I5">
-        <v>30399.5</v>
+        <v>31275</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,25 +4531,111 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>1</v>
+      </c>
+      <c r="C8">
+        <v>28042</v>
+      </c>
+      <c r="D8">
+        <v>21950</v>
+      </c>
+      <c r="E8">
+        <v>16778</v>
+      </c>
+      <c r="F8">
+        <v>14498.5</v>
+      </c>
+      <c r="G8">
+        <v>11756</v>
+      </c>
+      <c r="H8">
+        <v>8951</v>
+      </c>
+      <c r="I8">
+        <v>5901</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>1631</v>
+      </c>
+      <c r="D9">
+        <v>867.55</v>
+      </c>
+      <c r="E9">
+        <v>684.37699999999995</v>
+      </c>
+      <c r="F9">
+        <v>605.21900000000005</v>
+      </c>
+      <c r="G9">
+        <v>536.26099999999997</v>
+      </c>
+      <c r="H9">
+        <v>477.81299999999999</v>
+      </c>
+      <c r="I9">
+        <v>424.89100000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2316</v>
+      </c>
+      <c r="D10">
+        <v>1801</v>
+      </c>
+      <c r="E10">
+        <v>1266</v>
+      </c>
+      <c r="F10">
+        <v>1316</v>
+      </c>
+      <c r="G10">
+        <v>1051</v>
+      </c>
+      <c r="H10">
+        <v>731</v>
+      </c>
+      <c r="I10">
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>4</v>
+      </c>
+      <c r="C11">
+        <v>30318</v>
+      </c>
+      <c r="D11">
+        <v>29508</v>
+      </c>
+      <c r="E11">
+        <v>27367</v>
+      </c>
+      <c r="F11">
+        <v>26972.5</v>
+      </c>
+      <c r="G11">
+        <v>26810</v>
+      </c>
+      <c r="H11">
+        <v>26982.5</v>
+      </c>
+      <c r="I11">
+        <v>26154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/test/output/網路壽命比較(regular).xlsx
+++ b/test/output/網路壽命比較(regular).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DA77D-3344-45D7-89E3-5DBAE8EE2ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566C078-9DFF-47D8-AF0A-2A5A2886F7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3540" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -532,25 +532,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>26655.5</c:v>
+                  <c:v>26291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26429</c:v>
+                  <c:v>23349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28327</c:v>
+                  <c:v>19471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28183</c:v>
+                  <c:v>15480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29466</c:v>
+                  <c:v>14406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30793.5</c:v>
+                  <c:v>12276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31275</c:v>
+                  <c:v>10732.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,7 +558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00DB-4C2D-9F0B-6D3BD735D68D}"/>
+              <c16:uniqueId val="{00000001-5E4D-4A82-B13B-B8857CD996FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -891,17 +891,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15369109633782754"/>
-          <c:y val="4.540763673890609E-2"/>
-          <c:w val="0.61120155145374244"/>
-          <c:h val="0.7809833987469833"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1297,25 +1287,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30318</c:v>
+                  <c:v>34486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29508</c:v>
+                  <c:v>33841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27367</c:v>
+                  <c:v>28151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26972.5</c:v>
+                  <c:v>20831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26810</c:v>
+                  <c:v>20281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26982.5</c:v>
+                  <c:v>15289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26154</c:v>
+                  <c:v>13618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1CDC-4F44-A6C2-A1B875102652}"/>
+              <c16:uniqueId val="{00000001-98A7-45CE-9FE9-F14173A28486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1578,16 +1568,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.77428868798141337"/>
-          <c:y val="0.36067997692238929"/>
-          <c:w val="0.22309179608862956"/>
-          <c:h val="0.27863972111845153"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3925,15 +3905,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3960,16 +3940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3996,16 +3976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359092</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355282</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4356,21 +4336,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="11" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="11" width="17.88671875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4396,7 +4382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +4411,7 @@
         <v>5352.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4437,7 @@
         <v>320.64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4477,34 +4463,34 @@
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>26655.5</v>
+        <v>26291</v>
       </c>
       <c r="D5">
-        <v>26429</v>
+        <v>23349</v>
       </c>
       <c r="E5">
-        <v>28327</v>
+        <v>19471</v>
       </c>
       <c r="F5">
-        <v>28183</v>
+        <v>15480</v>
       </c>
       <c r="G5">
-        <v>29466</v>
+        <v>14406</v>
       </c>
       <c r="H5">
-        <v>30793.5</v>
+        <v>12276</v>
       </c>
       <c r="I5">
-        <v>31275</v>
+        <v>10732.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4516,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4559,7 +4545,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -4585,7 +4571,7 @@
         <v>424.89100000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -4611,34 +4597,34 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>30318</v>
+        <v>34486</v>
       </c>
       <c r="D11">
-        <v>29508</v>
+        <v>33841</v>
       </c>
       <c r="E11">
-        <v>27367</v>
+        <v>28151</v>
       </c>
       <c r="F11">
-        <v>26972.5</v>
+        <v>20831</v>
       </c>
       <c r="G11">
-        <v>26810</v>
+        <v>20281</v>
       </c>
       <c r="H11">
-        <v>26982.5</v>
+        <v>15289</v>
       </c>
       <c r="I11">
-        <v>26154</v>
+        <v>13618</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4664,10 +4650,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
